--- a/parts/ShelfKey.xlsx
+++ b/parts/ShelfKey.xlsx
@@ -15,7 +15,7 @@
     <sheet name="NewOrder" sheetId="2" r:id="rId1"/>
     <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="267">
   <si>
     <t>SL</t>
   </si>
@@ -790,13 +790,49 @@
   </si>
   <si>
     <t>SK-708-JST-XH-2.5MM-5P-M/F</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>MCIMX233CAG4C</t>
+  </si>
+  <si>
+    <t>IC MICROPROCESSOR 454MHZ 128LQFP</t>
+  </si>
+  <si>
+    <t>SK-MCIMX233CAG4C</t>
+  </si>
+  <si>
+    <t>MT46V32M16P-5B-J</t>
+  </si>
+  <si>
+    <t>IC SDRAM 512MBIT 200MHZ 66TSOP (MT46V32M16P-5B:J)</t>
+  </si>
+  <si>
+    <t>SK-MT46V32M16P-5B-J</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>CERAMIC CAPACITOR 0.1UF(100nF) 50V X7R 0603 10%</t>
+  </si>
+  <si>
+    <t>SK-CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>Shipment Charge</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +874,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -999,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,10 +1084,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,10 +1102,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,14 +1117,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1355,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,10 +1443,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1395,2911 +1465,2913 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="15">
         <v>50</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13">
+      <c r="F2" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="20">
         <v>1.21</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="20">
         <v>60.5</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="20"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="15">
         <v>50</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="20">
         <v>55</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="15">
         <v>20</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20">
         <v>2.34</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="20">
         <v>46.8</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="15">
         <v>20</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="20">
         <v>22</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="20">
         <v>5</v>
       </c>
       <c r="B10" s="15">
         <v>20</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20">
         <v>1.95</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="20">
         <v>39</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="20">
         <v>6</v>
       </c>
       <c r="B12" s="15">
         <v>46</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20">
         <v>4.88</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="20">
         <v>224.48</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
       <c r="B14" s="15">
         <v>10</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="20">
         <v>82</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="20">
         <v>8</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
         <v>5.81</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="20">
         <v>23.24</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="20">
         <v>9</v>
       </c>
       <c r="B18" s="15">
         <v>20</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
         <v>1.46</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="20">
         <v>29.2</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="20">
         <v>10</v>
       </c>
       <c r="B20" s="15">
         <v>30</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
         <v>1.38</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="20">
         <v>41.4</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="20">
         <v>11</v>
       </c>
       <c r="B22" s="15">
         <v>11</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
         <v>3.91</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="20">
         <v>43.01</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="20">
         <v>12</v>
       </c>
       <c r="B24" s="15">
         <v>15</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20">
         <v>5.86</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="20">
         <v>87.9</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
       </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
+      <c r="F26" s="20"/>
+      <c r="G26" s="20">
         <v>17.489999999999998</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="20">
         <v>17.489999999999998</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="20">
         <v>14</v>
       </c>
       <c r="B28" s="15">
         <v>6</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20">
         <v>12.44</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="20">
         <v>74.64</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="20">
         <v>15</v>
       </c>
       <c r="B30" s="15">
         <v>3</v>
       </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20">
         <v>16.59</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="20">
         <v>49.77</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="20">
         <v>16</v>
       </c>
       <c r="B32" s="15">
         <v>2</v>
       </c>
       <c r="C32" s="16"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20">
         <v>12.44</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="20">
         <v>24.88</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="20">
         <v>17</v>
       </c>
       <c r="B34" s="15">
         <v>30</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20">
         <v>0.18</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="20">
         <v>5.4</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="20">
         <v>18</v>
       </c>
       <c r="B36" s="15">
         <v>20</v>
       </c>
       <c r="C36" s="16"/>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20">
         <v>0.33</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="20">
         <v>6.6</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="20">
         <v>19</v>
       </c>
       <c r="B38" s="15">
         <v>13</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="20">
         <v>26.65</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="20">
         <v>20</v>
       </c>
       <c r="B40" s="15">
         <v>20</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20">
         <v>0.44</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="20"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="20">
         <v>21</v>
       </c>
       <c r="B42" s="15">
         <v>20</v>
       </c>
       <c r="C42" s="16"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20">
         <v>0.33</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="20">
         <v>6.6</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="20">
         <v>22</v>
       </c>
       <c r="B44" s="15">
         <v>20</v>
       </c>
       <c r="C44" s="16"/>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13">
+      <c r="F44" s="20"/>
+      <c r="G44" s="20">
         <v>1.65</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="20">
         <v>33</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="20">
         <v>23</v>
       </c>
       <c r="B46" s="15">
         <v>20</v>
       </c>
       <c r="C46" s="16"/>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13">
+      <c r="F46" s="20"/>
+      <c r="G46" s="20">
         <v>0.33</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="20">
         <v>6.6</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="20">
         <v>24</v>
       </c>
       <c r="B48" s="15">
         <v>20</v>
       </c>
       <c r="C48" s="16"/>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13">
+      <c r="F48" s="20"/>
+      <c r="G48" s="20">
         <v>0.44</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="20"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="20">
         <v>25</v>
       </c>
       <c r="B50" s="15">
         <v>15</v>
       </c>
       <c r="C50" s="16"/>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="13" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="20">
         <v>31.05</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="20">
         <v>26</v>
       </c>
       <c r="B52" s="15">
         <v>20</v>
       </c>
       <c r="C52" s="16"/>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20">
         <v>0.33</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="20">
         <v>6.6</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="A54" s="20">
         <v>27</v>
       </c>
       <c r="B54" s="15">
         <v>5</v>
       </c>
       <c r="C54" s="16"/>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="13" t="s">
         <v>87</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20">
         <v>3.66</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="20">
         <v>18.3</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="I54" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="A56" s="20">
         <v>28</v>
       </c>
       <c r="B56" s="15">
         <v>5</v>
       </c>
       <c r="C56" s="16"/>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="13" t="s">
         <v>90</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13">
+      <c r="F56" s="20"/>
+      <c r="G56" s="20">
         <v>1.93</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="20">
         <v>9.65</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="20">
         <v>29</v>
       </c>
       <c r="B58" s="15">
         <v>5</v>
       </c>
       <c r="C58" s="16"/>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13">
+      <c r="F58" s="20"/>
+      <c r="G58" s="20">
         <v>2.81</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="20">
         <v>14.05</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="20"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+      <c r="A60" s="20">
         <v>30</v>
       </c>
       <c r="B60" s="15">
         <v>5</v>
       </c>
       <c r="C60" s="16"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="13" t="s">
         <v>96</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13">
+      <c r="F60" s="20"/>
+      <c r="G60" s="20">
         <v>1.9</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="20">
         <v>9.5</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I60" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="20">
         <v>31</v>
       </c>
       <c r="B62" s="15">
         <v>5</v>
       </c>
       <c r="C62" s="16"/>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="13" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20">
         <v>0.71</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="20">
         <v>3.55</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="20"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="A64" s="20">
         <v>32</v>
       </c>
       <c r="B64" s="15">
         <v>10</v>
       </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="13" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13">
+      <c r="F64" s="20"/>
+      <c r="G64" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="20">
         <v>5.5</v>
       </c>
-      <c r="I64" s="19" t="s">
+      <c r="I64" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="A66" s="20">
         <v>33</v>
       </c>
       <c r="B66" s="15">
         <v>5</v>
       </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="13" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13">
+      <c r="F66" s="20"/>
+      <c r="G66" s="20">
         <v>2.71</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="20">
         <v>13.55</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
-      <c r="D67" s="20"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
+      <c r="A68" s="20">
         <v>34</v>
       </c>
       <c r="B68" s="15">
         <v>5</v>
       </c>
       <c r="C68" s="16"/>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="13" t="s">
         <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13">
+      <c r="F68" s="20"/>
+      <c r="G68" s="20">
         <v>3.66</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="20">
         <v>18.3</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+      <c r="A70" s="20">
         <v>35</v>
       </c>
       <c r="B70" s="15">
         <v>4</v>
       </c>
       <c r="C70" s="16"/>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="13" t="s">
         <v>114</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13">
+      <c r="F70" s="20"/>
+      <c r="G70" s="20">
         <v>4.88</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="20">
         <v>19.52</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="20"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+      <c r="A72" s="20">
         <v>36</v>
       </c>
       <c r="B72" s="15">
         <v>3</v>
       </c>
       <c r="C72" s="16"/>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="13" t="s">
         <v>123</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13">
+      <c r="F72" s="20"/>
+      <c r="G72" s="20">
         <v>26.24</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="20">
         <v>78.72</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="20">
         <v>37</v>
       </c>
       <c r="B74" s="15">
         <v>3</v>
       </c>
       <c r="C74" s="16"/>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13">
+      <c r="F74" s="20"/>
+      <c r="G74" s="20">
         <v>20.99</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="20">
         <v>62.97</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
-      <c r="D75" s="20"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+      <c r="A76" s="20">
         <v>38</v>
       </c>
       <c r="B76" s="15">
         <v>2</v>
       </c>
       <c r="C76" s="16"/>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="13" t="s">
         <v>129</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13">
+      <c r="F76" s="20"/>
+      <c r="G76" s="20">
         <v>19.239999999999998</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="20">
         <v>38.479999999999997</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I76" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
-      <c r="D77" s="20"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
+      <c r="A78" s="20">
         <v>39</v>
       </c>
       <c r="B78" s="15">
         <v>2</v>
       </c>
       <c r="C78" s="16"/>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="13" t="s">
         <v>135</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13">
+      <c r="F78" s="20"/>
+      <c r="G78" s="20">
         <v>27.98</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="20">
         <v>55.96</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="I78" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
-      <c r="D79" s="20"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="A80" s="20">
         <v>40</v>
       </c>
       <c r="B80" s="15">
         <v>2</v>
       </c>
       <c r="C80" s="16"/>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="13" t="s">
         <v>138</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13">
+      <c r="F80" s="20"/>
+      <c r="G80" s="20">
         <v>17.489999999999998</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="20">
         <v>34.979999999999997</v>
       </c>
-      <c r="I80" s="19" t="s">
+      <c r="I80" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
+      <c r="A82" s="20">
         <v>41</v>
       </c>
       <c r="B82" s="15">
         <v>2</v>
       </c>
       <c r="C82" s="16"/>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="13" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13">
+      <c r="F82" s="20"/>
+      <c r="G82" s="20">
         <v>8.0500000000000007</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="20">
         <v>16.100000000000001</v>
       </c>
-      <c r="I82" s="19" t="s">
+      <c r="I82" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
+      <c r="A84" s="20">
         <v>42</v>
       </c>
       <c r="B84" s="15">
         <v>2</v>
       </c>
       <c r="C84" s="16"/>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="13" t="s">
         <v>144</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13">
+      <c r="F84" s="20"/>
+      <c r="G84" s="20">
         <v>6.15</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="20">
         <v>12.3</v>
       </c>
-      <c r="I84" s="19" t="s">
+      <c r="I84" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
-      <c r="D85" s="20"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="20"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
+      <c r="A86" s="20">
         <v>43</v>
       </c>
       <c r="B86" s="15">
         <v>4</v>
       </c>
       <c r="C86" s="16"/>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="13" t="s">
         <v>147</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13">
+      <c r="F86" s="20"/>
+      <c r="G86" s="20">
         <v>2.59</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="20">
         <v>10.36</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
-      <c r="D87" s="20"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="20"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+      <c r="A88" s="20">
         <v>44</v>
       </c>
       <c r="B88" s="15">
         <v>4</v>
       </c>
       <c r="C88" s="16"/>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="13" t="s">
         <v>150</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13">
+      <c r="F88" s="20"/>
+      <c r="G88" s="20">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="20">
         <v>36.119999999999997</v>
       </c>
-      <c r="I88" s="19" t="s">
+      <c r="I88" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
-      <c r="D89" s="20"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="20"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
+      <c r="A90" s="20">
         <v>45</v>
       </c>
       <c r="B90" s="15">
         <v>30</v>
       </c>
       <c r="C90" s="16"/>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="13" t="s">
         <v>153</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13">
+      <c r="F90" s="20"/>
+      <c r="G90" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="20">
         <v>16.5</v>
       </c>
-      <c r="I90" s="19" t="s">
+      <c r="I90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
-      <c r="D91" s="20"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="20"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
+      <c r="A92" s="20">
         <v>46</v>
       </c>
       <c r="B92" s="15">
         <v>2</v>
       </c>
       <c r="C92" s="16"/>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="13" t="s">
         <v>156</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13">
+      <c r="F92" s="20"/>
+      <c r="G92" s="20">
         <v>14.52</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="20">
         <v>29.04</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
-      <c r="D93" s="20"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
+      <c r="A94" s="20">
         <v>47</v>
       </c>
       <c r="B94" s="15">
         <v>2</v>
       </c>
       <c r="C94" s="16"/>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="13" t="s">
         <v>159</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13">
+      <c r="F94" s="20"/>
+      <c r="G94" s="20">
         <v>7.32</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94" s="20">
         <v>14.64</v>
       </c>
-      <c r="I94" s="19" t="s">
+      <c r="I94" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
-      <c r="D95" s="20"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="20"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="13">
+      <c r="A96" s="20">
         <v>48</v>
       </c>
       <c r="B96" s="15">
         <v>5</v>
       </c>
       <c r="C96" s="16"/>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="13" t="s">
         <v>162</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13">
+      <c r="F96" s="20"/>
+      <c r="G96" s="20">
         <v>2</v>
       </c>
-      <c r="H96" s="13">
-        <v>10</v>
-      </c>
-      <c r="I96" s="19" t="s">
+      <c r="H96" s="20">
+        <v>10</v>
+      </c>
+      <c r="I96" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
-      <c r="D97" s="20"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="20"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
+      <c r="A98" s="20">
         <v>49</v>
       </c>
       <c r="B98" s="15">
         <v>1</v>
       </c>
       <c r="C98" s="16"/>
-      <c r="D98" s="19">
+      <c r="D98" s="13">
         <v>7447709150</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13">
+      <c r="F98" s="20"/>
+      <c r="G98" s="20">
         <v>106.84</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="20">
         <v>106.84</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
-      <c r="D99" s="20"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
+      <c r="A100" s="20">
         <v>50</v>
       </c>
       <c r="B100" s="15">
         <v>20</v>
       </c>
       <c r="C100" s="16"/>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="13" t="s">
         <v>167</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13">
+      <c r="F100" s="20"/>
+      <c r="G100" s="20">
         <v>3.12</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="20">
         <v>62.4</v>
       </c>
-      <c r="I100" s="19" t="s">
+      <c r="I100" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
-      <c r="D101" s="20"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="20"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
+      <c r="A102" s="20">
         <v>51</v>
       </c>
       <c r="B102" s="15">
         <v>1</v>
       </c>
       <c r="C102" s="16"/>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="13" t="s">
         <v>170</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13">
+      <c r="F102" s="20"/>
+      <c r="G102" s="20">
         <v>18.36</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="20">
         <v>18.36</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
-      <c r="D103" s="20"/>
+      <c r="D103" s="14"/>
       <c r="E103" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="20"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="13">
+      <c r="A104" s="20">
         <v>52</v>
       </c>
       <c r="B104" s="15">
         <v>2</v>
       </c>
       <c r="C104" s="16"/>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="13" t="s">
         <v>173</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13">
+      <c r="F104" s="20"/>
+      <c r="G104" s="20">
         <v>14.52</v>
       </c>
-      <c r="H104" s="13">
+      <c r="H104" s="20">
         <v>29.04</v>
       </c>
-      <c r="I104" s="19" t="s">
+      <c r="I104" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
-      <c r="D105" s="20"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="20"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
+      <c r="A106" s="20">
         <v>53</v>
       </c>
       <c r="B106" s="15">
         <v>1</v>
       </c>
       <c r="C106" s="16"/>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="13" t="s">
         <v>176</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13">
+      <c r="F106" s="20"/>
+      <c r="G106" s="20">
         <v>12.44</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="20">
         <v>12.44</v>
       </c>
-      <c r="I106" s="19" t="s">
+      <c r="I106" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
-      <c r="D107" s="20"/>
+      <c r="D107" s="14"/>
       <c r="E107" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
+      <c r="A108" s="20">
         <v>54</v>
       </c>
       <c r="B108" s="15">
         <v>30</v>
       </c>
       <c r="C108" s="16"/>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="13" t="s">
         <v>179</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13">
+      <c r="F108" s="20"/>
+      <c r="G108" s="20">
         <v>0.88</v>
       </c>
-      <c r="H108" s="13">
+      <c r="H108" s="20">
         <v>26.4</v>
       </c>
-      <c r="I108" s="19" t="s">
+      <c r="I108" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
-      <c r="D109" s="20"/>
+      <c r="D109" s="14"/>
       <c r="E109" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
+      <c r="A110" s="20">
         <v>55</v>
       </c>
       <c r="B110" s="15">
         <v>20</v>
       </c>
       <c r="C110" s="16"/>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="13" t="s">
         <v>182</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13">
+      <c r="F110" s="20"/>
+      <c r="G110" s="20">
         <v>0.22</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I110" s="19" t="s">
+      <c r="I110" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
-      <c r="D111" s="20"/>
+      <c r="D111" s="14"/>
       <c r="E111" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="20"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="13">
+      <c r="A112" s="20">
         <v>56</v>
       </c>
       <c r="B112" s="15">
         <v>20</v>
       </c>
       <c r="C112" s="16"/>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="13" t="s">
         <v>185</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13">
+      <c r="F112" s="20"/>
+      <c r="G112" s="20">
         <v>0.33</v>
       </c>
-      <c r="H112" s="13">
+      <c r="H112" s="20">
         <v>6.6</v>
       </c>
-      <c r="I112" s="19" t="s">
+      <c r="I112" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
-      <c r="D113" s="20"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="20"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
+      <c r="A114" s="20">
         <v>57</v>
       </c>
       <c r="B114" s="15">
         <v>20</v>
       </c>
       <c r="C114" s="16"/>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13">
+      <c r="F114" s="20"/>
+      <c r="G114" s="20">
         <v>0.44</v>
       </c>
-      <c r="H114" s="13">
+      <c r="H114" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I114" s="19" t="s">
+      <c r="I114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="14"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
-      <c r="D115" s="20"/>
+      <c r="D115" s="14"/>
       <c r="E115" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="20"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
+      <c r="A116" s="20">
         <v>58</v>
       </c>
       <c r="B116" s="15">
         <v>20</v>
       </c>
       <c r="C116" s="16"/>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="13" t="s">
         <v>191</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13">
+      <c r="F116" s="20"/>
+      <c r="G116" s="20">
         <v>0.33</v>
       </c>
-      <c r="H116" s="13">
+      <c r="H116" s="20">
         <v>6.6</v>
       </c>
-      <c r="I116" s="19" t="s">
+      <c r="I116" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="17"/>
       <c r="C117" s="18"/>
-      <c r="D117" s="20"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="20"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
+      <c r="A118" s="20">
         <v>59</v>
       </c>
       <c r="B118" s="15">
         <v>20</v>
       </c>
       <c r="C118" s="16"/>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="20">
         <v>0.33</v>
       </c>
-      <c r="H118" s="13">
+      <c r="H118" s="20">
         <v>6.6</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I118" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
-      <c r="D119" s="20"/>
+      <c r="D119" s="14"/>
       <c r="E119" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="20"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="13">
+      <c r="A120" s="20">
         <v>60</v>
       </c>
       <c r="B120" s="15">
         <v>15</v>
       </c>
       <c r="C120" s="16"/>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="13" t="s">
         <v>198</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13">
+      <c r="F120" s="20"/>
+      <c r="G120" s="20">
         <v>0.33</v>
       </c>
-      <c r="H120" s="13">
+      <c r="H120" s="20">
         <v>4.95</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="14"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
-      <c r="D121" s="20"/>
+      <c r="D121" s="14"/>
       <c r="E121" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="20"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="14"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
+      <c r="A122" s="20">
         <v>61</v>
       </c>
       <c r="B122" s="15">
         <v>10</v>
       </c>
       <c r="C122" s="16"/>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="13" t="s">
         <v>201</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13">
+      <c r="F122" s="20"/>
+      <c r="G122" s="20">
         <v>1.65</v>
       </c>
-      <c r="H122" s="13">
+      <c r="H122" s="20">
         <v>16.5</v>
       </c>
-      <c r="I122" s="19" t="s">
+      <c r="I122" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
-      <c r="D123" s="20"/>
+      <c r="D123" s="14"/>
       <c r="E123" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="20"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="13">
+      <c r="A124" s="20">
         <v>62</v>
       </c>
       <c r="B124" s="15">
         <v>20</v>
       </c>
       <c r="C124" s="16"/>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="13" t="s">
         <v>204</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13">
+      <c r="F124" s="20"/>
+      <c r="G124" s="20">
         <v>0.51</v>
       </c>
-      <c r="H124" s="13">
+      <c r="H124" s="20">
         <v>10.199999999999999</v>
       </c>
-      <c r="I124" s="19" t="s">
+      <c r="I124" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
-      <c r="D125" s="20"/>
+      <c r="D125" s="14"/>
       <c r="E125" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="20"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
+      <c r="A126" s="20">
         <v>63</v>
       </c>
       <c r="B126" s="15">
         <v>20</v>
       </c>
       <c r="C126" s="16"/>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="13" t="s">
         <v>207</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13">
+      <c r="F126" s="20"/>
+      <c r="G126" s="20">
         <v>1.65</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="20">
         <v>33</v>
       </c>
-      <c r="I126" s="19" t="s">
+      <c r="I126" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="14"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
-      <c r="D127" s="20"/>
+      <c r="D127" s="14"/>
       <c r="E127" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
+      <c r="A128" s="20">
         <v>64</v>
       </c>
       <c r="B128" s="15">
         <v>20</v>
       </c>
       <c r="C128" s="16"/>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="13" t="s">
         <v>210</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13">
+      <c r="F128" s="20"/>
+      <c r="G128" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H128" s="13">
+      <c r="H128" s="20">
         <v>11</v>
       </c>
-      <c r="I128" s="19" t="s">
+      <c r="I128" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="14"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
-      <c r="D129" s="20"/>
+      <c r="D129" s="14"/>
       <c r="E129" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="20"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="14"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="13">
+      <c r="A130" s="20">
         <v>65</v>
       </c>
       <c r="B130" s="15">
         <v>15</v>
       </c>
       <c r="C130" s="16"/>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="13" t="s">
         <v>213</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13">
+      <c r="F130" s="20"/>
+      <c r="G130" s="20">
         <v>0.33</v>
       </c>
-      <c r="H130" s="13">
+      <c r="H130" s="20">
         <v>4.95</v>
       </c>
-      <c r="I130" s="19" t="s">
+      <c r="I130" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="17"/>
       <c r="C131" s="18"/>
-      <c r="D131" s="20"/>
+      <c r="D131" s="14"/>
       <c r="E131" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="20"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="14"/>
     </row>
     <row r="132" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="13">
+      <c r="A132" s="20">
         <v>66</v>
       </c>
       <c r="B132" s="15">
         <v>15</v>
       </c>
       <c r="C132" s="16"/>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="13" t="s">
         <v>219</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13">
+      <c r="F132" s="20"/>
+      <c r="G132" s="20">
         <v>1.54</v>
       </c>
-      <c r="H132" s="13">
+      <c r="H132" s="20">
         <v>23.1</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
-      <c r="D133" s="20"/>
+      <c r="D133" s="14"/>
       <c r="E133" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="20"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="14"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
+      <c r="A134" s="20">
         <v>67</v>
       </c>
       <c r="B134" s="15">
         <v>15</v>
       </c>
       <c r="C134" s="16"/>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="13" t="s">
         <v>222</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="F134" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="G134" s="13">
+      <c r="G134" s="20">
         <v>1.76</v>
       </c>
-      <c r="H134" s="13">
+      <c r="H134" s="20">
         <v>26.4</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
+      <c r="A135" s="21"/>
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
-      <c r="D135" s="20"/>
+      <c r="D135" s="14"/>
       <c r="E135" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="20"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="14"/>
     </row>
     <row r="136" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="13">
+      <c r="A136" s="20">
         <v>68</v>
       </c>
       <c r="B136" s="15">
         <v>15</v>
       </c>
       <c r="C136" s="16"/>
-      <c r="D136" s="19" t="s">
+      <c r="D136" s="13" t="s">
         <v>226</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F136" s="13" t="s">
+      <c r="F136" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="G136" s="13">
+      <c r="G136" s="20">
         <v>3.12</v>
       </c>
-      <c r="H136" s="13">
+      <c r="H136" s="20">
         <v>46.8</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="17"/>
       <c r="C137" s="18"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="14"/>
       <c r="E137" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="20"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="14"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="13">
+      <c r="A138" s="20">
         <v>69</v>
       </c>
       <c r="B138" s="15">
         <v>2</v>
       </c>
       <c r="C138" s="16"/>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="13" t="s">
         <v>231</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13">
+      <c r="F138" s="20"/>
+      <c r="G138" s="20">
         <v>10.37</v>
       </c>
-      <c r="H138" s="13">
+      <c r="H138" s="20">
         <v>20.74</v>
       </c>
-      <c r="I138" s="19" t="s">
+      <c r="I138" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="14"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
-      <c r="D139" s="20"/>
+      <c r="D139" s="14"/>
       <c r="E139" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="20"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="14"/>
     </row>
     <row r="140" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="13">
+      <c r="A140" s="20">
         <v>70</v>
       </c>
       <c r="B140" s="15">
         <v>5</v>
       </c>
       <c r="C140" s="16"/>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="13" t="s">
         <v>234</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13">
+      <c r="F140" s="20"/>
+      <c r="G140" s="20">
         <v>11.6</v>
       </c>
-      <c r="H140" s="13">
+      <c r="H140" s="20">
         <v>58</v>
       </c>
-      <c r="I140" s="19" t="s">
+      <c r="I140" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="14"/>
+      <c r="A141" s="21"/>
       <c r="B141" s="17"/>
       <c r="C141" s="18"/>
-      <c r="D141" s="20"/>
+      <c r="D141" s="14"/>
       <c r="E141" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="20"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="14"/>
     </row>
     <row r="142" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A142" s="13">
+      <c r="A142" s="20">
         <v>71</v>
       </c>
       <c r="B142" s="15">
         <v>2</v>
       </c>
       <c r="C142" s="16"/>
-      <c r="D142" s="19" t="s">
+      <c r="D142" s="13" t="s">
         <v>237</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13">
+      <c r="F142" s="20"/>
+      <c r="G142" s="20">
         <v>63.84</v>
       </c>
-      <c r="H142" s="13">
+      <c r="H142" s="20">
         <v>127.68</v>
       </c>
-      <c r="I142" s="19" t="s">
+      <c r="I142" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
+      <c r="A143" s="21"/>
       <c r="B143" s="17"/>
       <c r="C143" s="18"/>
-      <c r="D143" s="20"/>
+      <c r="D143" s="14"/>
       <c r="E143" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="20"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="14"/>
     </row>
     <row r="144" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="13">
+      <c r="A144" s="20">
         <v>72</v>
       </c>
       <c r="B144" s="15">
         <v>5</v>
       </c>
       <c r="C144" s="16"/>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="13" t="s">
         <v>240</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13">
+      <c r="F144" s="20"/>
+      <c r="G144" s="20">
         <v>26.24</v>
       </c>
-      <c r="H144" s="13">
+      <c r="H144" s="20">
         <v>131.19999999999999</v>
       </c>
-      <c r="I144" s="19" t="s">
+      <c r="I144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
+      <c r="A145" s="21"/>
       <c r="B145" s="17"/>
       <c r="C145" s="18"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="14"/>
       <c r="E145" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="20"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="14"/>
     </row>
     <row r="146" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="A146" s="20">
         <v>73</v>
       </c>
       <c r="B146" s="15">
         <v>2</v>
       </c>
       <c r="C146" s="16"/>
-      <c r="D146" s="19" t="s">
+      <c r="D146" s="13" t="s">
         <v>243</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13">
+      <c r="F146" s="20"/>
+      <c r="G146" s="20">
         <v>35.14</v>
       </c>
-      <c r="H146" s="13">
+      <c r="H146" s="20">
         <v>70.28</v>
       </c>
-      <c r="I146" s="19" t="s">
+      <c r="I146" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="14"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="14"/>
       <c r="E147" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="20"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="13">
+      <c r="A148" s="20">
         <v>74</v>
       </c>
       <c r="B148" s="15">
         <v>4</v>
       </c>
       <c r="C148" s="16"/>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="13" t="s">
         <v>246</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13">
+      <c r="F148" s="20"/>
+      <c r="G148" s="20">
         <v>6.1</v>
       </c>
-      <c r="H148" s="13">
+      <c r="H148" s="20">
         <v>24.4</v>
       </c>
-      <c r="I148" s="19" t="s">
+      <c r="I148" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="14"/>
+      <c r="A149" s="21"/>
       <c r="B149" s="17"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="14"/>
       <c r="E149" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="20"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="14"/>
     </row>
     <row r="150" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="13">
+      <c r="A150" s="20">
         <v>75</v>
       </c>
       <c r="B150" s="15">
         <v>2</v>
       </c>
       <c r="C150" s="16"/>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="13" t="s">
         <v>249</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13">
+      <c r="F150" s="20"/>
+      <c r="G150" s="20">
         <v>9.77</v>
       </c>
-      <c r="H150" s="13">
+      <c r="H150" s="20">
         <v>19.54</v>
       </c>
-      <c r="I150" s="19" t="s">
+      <c r="I150" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="14"/>
+      <c r="A151" s="21"/>
       <c r="B151" s="17"/>
       <c r="C151" s="18"/>
-      <c r="D151" s="20"/>
+      <c r="D151" s="14"/>
       <c r="E151" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="20"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A152" s="13">
+      <c r="A152" s="20">
         <v>76</v>
       </c>
       <c r="B152" s="15">
         <v>4</v>
       </c>
       <c r="C152" s="16"/>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="13" t="s">
         <v>252</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13">
+      <c r="F152" s="20"/>
+      <c r="G152" s="20">
         <v>11.6</v>
       </c>
-      <c r="H152" s="13">
+      <c r="H152" s="20">
         <v>46.4</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I152" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="14"/>
+      <c r="A153" s="21"/>
       <c r="B153" s="17"/>
       <c r="C153" s="18"/>
-      <c r="D153" s="20"/>
+      <c r="D153" s="14"/>
       <c r="E153" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="20"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A154" s="23"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="23"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
@@ -4349,8 +4421,663 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
+    <row r="159" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="30">
+        <v>1</v>
+      </c>
+      <c r="B160" s="30">
+        <v>2</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E160" s="30">
+        <v>428.98</v>
+      </c>
+      <c r="F160" s="30">
+        <v>857.96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="31"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+    </row>
+    <row r="162" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="30">
+        <v>2</v>
+      </c>
+      <c r="B162" s="30">
+        <v>1</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D162" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E162" s="30">
+        <v>772.76</v>
+      </c>
+      <c r="F162" s="30">
+        <v>772.76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="31"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+    </row>
+    <row r="164" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="30">
+        <v>3</v>
+      </c>
+      <c r="B164" s="30">
+        <v>10</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D164" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E164" s="30">
+        <v>0.88</v>
+      </c>
+      <c r="F164" s="30">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="31"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A167" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B167" s="26">
+        <v>1639.52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="534">
+  <mergeCells count="549">
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="B90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="B108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="B120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="B126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="B132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="B138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="B144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="B80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="B76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="B116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="B118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="B110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="B112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="B130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="B122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="B124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="B140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="B142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="I142:I143"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="B134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="B136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H134:H135"/>
     <mergeCell ref="I150:I151"/>
     <mergeCell ref="B152:C153"/>
     <mergeCell ref="D152:D153"/>
@@ -4375,516 +5102,6 @@
     <mergeCell ref="G150:G151"/>
     <mergeCell ref="H146:H147"/>
     <mergeCell ref="A148:A149"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="B140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="B142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="I142:I143"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="B134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="B136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="B130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="B122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="B124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="B116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="B118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="B110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="B112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="B98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="B100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="B80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="B76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="B144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="B138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="B132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="B126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="B120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="B108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="B102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="B90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://www.shelfkey.com/orderproduct.aspx?cmd=edit&amp;id=0"/>
@@ -5063,10 +5280,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
@@ -5085,7 +5302,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="15">
@@ -5098,32 +5315,32 @@
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20">
         <v>1.21</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="20">
         <v>60.5</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
       <c r="D3" s="25"/>
       <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="15">
@@ -5136,34 +5353,34 @@
       <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="20">
         <v>55</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="25"/>
       <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="15">
@@ -5176,32 +5393,32 @@
       <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20">
         <v>2.34</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="20">
         <v>46.8</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="25"/>
       <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="15">
@@ -5214,32 +5431,32 @@
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="20">
         <v>22</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="25"/>
       <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="20">
         <v>5</v>
       </c>
       <c r="B10" s="15">
@@ -5252,32 +5469,32 @@
       <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20">
         <v>1.95</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="20">
         <v>39</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="25"/>
       <c r="E11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="20">
         <v>6</v>
       </c>
       <c r="B12" s="15">
@@ -5290,32 +5507,32 @@
       <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20">
         <v>4.88</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="20">
         <v>224.48</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="25"/>
       <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
       <c r="B14" s="15">
@@ -5328,32 +5545,32 @@
       <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="20">
         <v>82</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="25"/>
       <c r="E15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="20">
         <v>8</v>
       </c>
       <c r="B16" s="15">
@@ -5366,32 +5583,32 @@
       <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
         <v>5.81</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="20">
         <v>23.24</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="25"/>
       <c r="E17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="20">
         <v>9</v>
       </c>
       <c r="B18" s="15">
@@ -5404,32 +5621,32 @@
       <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
         <v>1.46</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="20">
         <v>29.2</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="25"/>
       <c r="E19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="20">
         <v>10</v>
       </c>
       <c r="B20" s="15">
@@ -5442,32 +5659,32 @@
       <c r="E20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
         <v>1.38</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="20">
         <v>41.4</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="25"/>
       <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="20">
         <v>11</v>
       </c>
       <c r="B22" s="15">
@@ -5480,32 +5697,32 @@
       <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
         <v>3.91</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="20">
         <v>43.01</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="25"/>
       <c r="E23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="20">
         <v>12</v>
       </c>
       <c r="B24" s="15">
@@ -5518,32 +5735,32 @@
       <c r="E24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20">
         <v>5.86</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="20">
         <v>87.9</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="25"/>
       <c r="E25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="20">
         <v>13</v>
       </c>
       <c r="B26" s="15">
@@ -5556,32 +5773,32 @@
       <c r="E26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
+      <c r="F26" s="20"/>
+      <c r="G26" s="20">
         <v>17.489999999999998</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="20">
         <v>17.489999999999998</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
       <c r="D27" s="25"/>
       <c r="E27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="20">
         <v>14</v>
       </c>
       <c r="B28" s="15">
@@ -5594,32 +5811,32 @@
       <c r="E28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20">
         <v>12.44</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="20">
         <v>74.64</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="25"/>
       <c r="E29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+      <c r="A30" s="20">
         <v>15</v>
       </c>
       <c r="B30" s="15">
@@ -5632,32 +5849,32 @@
       <c r="E30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20">
         <v>16.59</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="20">
         <v>99.54</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="25"/>
       <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+      <c r="A32" s="20">
         <v>16</v>
       </c>
       <c r="B32" s="15">
@@ -5670,32 +5887,32 @@
       <c r="E32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20">
         <v>12.44</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="20">
         <v>24.88</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="25"/>
       <c r="E33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+      <c r="A34" s="20">
         <v>17</v>
       </c>
       <c r="B34" s="15">
@@ -5708,32 +5925,32 @@
       <c r="E34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13">
+      <c r="F34" s="20"/>
+      <c r="G34" s="20">
         <v>0.18</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="20">
         <v>5.4</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="25"/>
       <c r="E35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="20">
         <v>18</v>
       </c>
       <c r="B36" s="15">
@@ -5746,32 +5963,32 @@
       <c r="E36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20">
         <v>0.33</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="20">
         <v>6.6</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="25"/>
       <c r="E37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="20">
         <v>19</v>
       </c>
       <c r="B38" s="15">
@@ -5784,32 +6001,32 @@
       <c r="E38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="20">
         <v>26.65</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="25"/>
       <c r="E39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="20">
         <v>20</v>
       </c>
       <c r="B40" s="15">
@@ -5822,32 +6039,32 @@
       <c r="E40" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20">
         <v>0.44</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="25"/>
       <c r="E41" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="20">
         <v>21</v>
       </c>
       <c r="B42" s="15">
@@ -5860,32 +6077,32 @@
       <c r="E42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20">
         <v>0.33</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="20">
         <v>6.6</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="25"/>
       <c r="E43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+      <c r="A44" s="20">
         <v>22</v>
       </c>
       <c r="B44" s="15">
@@ -5898,32 +6115,32 @@
       <c r="E44" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13">
+      <c r="F44" s="20"/>
+      <c r="G44" s="20">
         <v>1.65</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="20">
         <v>33</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="25"/>
       <c r="E45" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="20">
         <v>23</v>
       </c>
       <c r="B46" s="15">
@@ -5936,32 +6153,32 @@
       <c r="E46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13">
+      <c r="F46" s="20"/>
+      <c r="G46" s="20">
         <v>0.33</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="20">
         <v>6.6</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="25"/>
       <c r="E47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+      <c r="A48" s="20">
         <v>24</v>
       </c>
       <c r="B48" s="15">
@@ -5974,32 +6191,32 @@
       <c r="E48" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13">
+      <c r="F48" s="20"/>
+      <c r="G48" s="20">
         <v>0.44</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="25"/>
       <c r="E49" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="20">
         <v>25</v>
       </c>
       <c r="B50" s="15">
@@ -6012,32 +6229,32 @@
       <c r="E50" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="20">
         <v>41.4</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="25"/>
       <c r="E51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="20">
         <v>26</v>
       </c>
       <c r="B52" s="15">
@@ -6050,32 +6267,32 @@
       <c r="E52" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20">
         <v>0.33</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="20">
         <v>6.6</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="25"/>
       <c r="E53" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
+      <c r="A54" s="20">
         <v>27</v>
       </c>
       <c r="B54" s="15">
@@ -6088,32 +6305,32 @@
       <c r="E54" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20">
         <v>3.66</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="20">
         <v>18.3</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="I54" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="17"/>
       <c r="C55" s="18"/>
       <c r="D55" s="25"/>
       <c r="E55" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+      <c r="A56" s="20">
         <v>28</v>
       </c>
       <c r="B56" s="15">
@@ -6126,32 +6343,32 @@
       <c r="E56" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13">
+      <c r="F56" s="20"/>
+      <c r="G56" s="20">
         <v>1.93</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="20">
         <v>9.65</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="25"/>
       <c r="E57" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="20">
         <v>29</v>
       </c>
       <c r="B58" s="15">
@@ -6164,32 +6381,32 @@
       <c r="E58" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13">
+      <c r="F58" s="20"/>
+      <c r="G58" s="20">
         <v>2.81</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="20">
         <v>14.05</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="25"/>
       <c r="E59" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+      <c r="A60" s="20">
         <v>30</v>
       </c>
       <c r="B60" s="15">
@@ -6202,32 +6419,32 @@
       <c r="E60" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13">
+      <c r="F60" s="20"/>
+      <c r="G60" s="20">
         <v>1.9</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="20">
         <v>9.5</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I60" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="25"/>
       <c r="E61" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="20">
         <v>31</v>
       </c>
       <c r="B62" s="15">
@@ -6240,32 +6457,32 @@
       <c r="E62" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20">
         <v>0.71</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="20">
         <v>3.55</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="25"/>
       <c r="E63" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="A64" s="20">
         <v>32</v>
       </c>
       <c r="B64" s="15">
@@ -6278,32 +6495,32 @@
       <c r="E64" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13">
+      <c r="F64" s="20"/>
+      <c r="G64" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="20">
         <v>5.5</v>
       </c>
-      <c r="I64" s="19" t="s">
+      <c r="I64" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="25"/>
       <c r="E65" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="13">
+      <c r="A66" s="20">
         <v>33</v>
       </c>
       <c r="B66" s="15">
@@ -6316,32 +6533,32 @@
       <c r="E66" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13">
+      <c r="F66" s="20"/>
+      <c r="G66" s="20">
         <v>2.71</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="20">
         <v>13.55</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="I66" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="25"/>
       <c r="E67" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="13">
+      <c r="A68" s="20">
         <v>34</v>
       </c>
       <c r="B68" s="15">
@@ -6354,32 +6571,32 @@
       <c r="E68" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13">
+      <c r="F68" s="20"/>
+      <c r="G68" s="20">
         <v>2.71</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="20">
         <v>13.55</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="25"/>
       <c r="E69" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13">
+      <c r="A70" s="20">
         <v>35</v>
       </c>
       <c r="B70" s="15">
@@ -6392,32 +6609,32 @@
       <c r="E70" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13">
+      <c r="F70" s="20"/>
+      <c r="G70" s="20">
         <v>3.66</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="20">
         <v>18.3</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="25"/>
       <c r="E71" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="20"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
+      <c r="A72" s="20">
         <v>36</v>
       </c>
       <c r="B72" s="15">
@@ -6430,32 +6647,32 @@
       <c r="E72" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13">
+      <c r="F72" s="20"/>
+      <c r="G72" s="20">
         <v>4.88</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="20">
         <v>19.52</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="I72" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="25"/>
       <c r="E73" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="20">
         <v>37</v>
       </c>
       <c r="B74" s="15">
@@ -6468,32 +6685,32 @@
       <c r="E74" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13">
+      <c r="F74" s="20"/>
+      <c r="G74" s="20">
         <v>3.66</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="20">
         <v>18.3</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="25"/>
       <c r="E75" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+      <c r="A76" s="20">
         <v>38</v>
       </c>
       <c r="B76" s="15">
@@ -6506,32 +6723,32 @@
       <c r="E76" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13">
+      <c r="F76" s="20"/>
+      <c r="G76" s="20">
         <v>9.8800000000000008</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="20">
         <v>29.64</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I76" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="25"/>
       <c r="E77" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
+      <c r="A78" s="20">
         <v>39</v>
       </c>
       <c r="B78" s="15">
@@ -6544,32 +6761,32 @@
       <c r="E78" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13">
+      <c r="F78" s="20"/>
+      <c r="G78" s="20">
         <v>26.24</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="20">
         <v>78.72</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="I78" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="25"/>
       <c r="E79" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="A80" s="20">
         <v>40</v>
       </c>
       <c r="B80" s="15">
@@ -6582,32 +6799,32 @@
       <c r="E80" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13">
+      <c r="F80" s="20"/>
+      <c r="G80" s="20">
         <v>20.99</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="20">
         <v>62.97</v>
       </c>
-      <c r="I80" s="19" t="s">
+      <c r="I80" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="25"/>
       <c r="E81" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="13">
+      <c r="A82" s="20">
         <v>41</v>
       </c>
       <c r="B82" s="15">
@@ -6620,32 +6837,32 @@
       <c r="E82" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13">
+      <c r="F82" s="20"/>
+      <c r="G82" s="20">
         <v>19.239999999999998</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="20">
         <v>38.479999999999997</v>
       </c>
-      <c r="I82" s="19" t="s">
+      <c r="I82" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="25"/>
       <c r="E83" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="13">
+      <c r="A84" s="20">
         <v>42</v>
       </c>
       <c r="B84" s="15">
@@ -6658,32 +6875,32 @@
       <c r="E84" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13">
+      <c r="F84" s="20"/>
+      <c r="G84" s="20">
         <v>61.22</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="20">
         <v>61.22</v>
       </c>
-      <c r="I84" s="19" t="s">
+      <c r="I84" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="25"/>
       <c r="E85" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="20"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
+      <c r="A86" s="20">
         <v>43</v>
       </c>
       <c r="B86" s="15">
@@ -6696,32 +6913,32 @@
       <c r="E86" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13">
+      <c r="F86" s="20"/>
+      <c r="G86" s="20">
         <v>27.98</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="20">
         <v>55.96</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="25"/>
       <c r="E87" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="20"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+      <c r="A88" s="20">
         <v>44</v>
       </c>
       <c r="B88" s="15">
@@ -6734,32 +6951,32 @@
       <c r="E88" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13">
+      <c r="F88" s="20"/>
+      <c r="G88" s="20">
         <v>17.489999999999998</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="20">
         <v>34.979999999999997</v>
       </c>
-      <c r="I88" s="19" t="s">
+      <c r="I88" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="25"/>
       <c r="E89" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="20"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
+      <c r="A90" s="20">
         <v>45</v>
       </c>
       <c r="B90" s="15">
@@ -6772,32 +6989,32 @@
       <c r="E90" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13">
+      <c r="F90" s="20"/>
+      <c r="G90" s="20">
         <v>8.0500000000000007</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="20">
         <v>16.100000000000001</v>
       </c>
-      <c r="I90" s="19" t="s">
+      <c r="I90" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="25"/>
       <c r="E91" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="20"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="13">
+      <c r="A92" s="20">
         <v>46</v>
       </c>
       <c r="B92" s="15">
@@ -6810,32 +7027,32 @@
       <c r="E92" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13">
+      <c r="F92" s="20"/>
+      <c r="G92" s="20">
         <v>6.15</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="20">
         <v>12.3</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="25"/>
       <c r="E93" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
+      <c r="A94" s="20">
         <v>47</v>
       </c>
       <c r="B94" s="15">
@@ -6848,32 +7065,32 @@
       <c r="E94" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13">
+      <c r="F94" s="20"/>
+      <c r="G94" s="20">
         <v>2.59</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94" s="20">
         <v>10.36</v>
       </c>
-      <c r="I94" s="19" t="s">
+      <c r="I94" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="25"/>
       <c r="E95" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="20"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="13">
+      <c r="A96" s="20">
         <v>48</v>
       </c>
       <c r="B96" s="15">
@@ -6886,32 +7103,32 @@
       <c r="E96" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13">
+      <c r="F96" s="20"/>
+      <c r="G96" s="20">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="20">
         <v>36.119999999999997</v>
       </c>
-      <c r="I96" s="19" t="s">
+      <c r="I96" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="25"/>
       <c r="E97" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="20"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
+      <c r="A98" s="20">
         <v>49</v>
       </c>
       <c r="B98" s="15">
@@ -6924,32 +7141,32 @@
       <c r="E98" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13">
+      <c r="F98" s="20"/>
+      <c r="G98" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98" s="20">
         <v>16.5</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="25"/>
       <c r="E99" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="13">
+      <c r="A100" s="20">
         <v>50</v>
       </c>
       <c r="B100" s="15">
@@ -6962,32 +7179,32 @@
       <c r="E100" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13">
+      <c r="F100" s="20"/>
+      <c r="G100" s="20">
         <v>14.52</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="20">
         <v>29.04</v>
       </c>
-      <c r="I100" s="19" t="s">
+      <c r="I100" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="25"/>
       <c r="E101" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="20"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="13">
+      <c r="A102" s="20">
         <v>51</v>
       </c>
       <c r="B102" s="15">
@@ -7000,32 +7217,32 @@
       <c r="E102" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13">
+      <c r="F102" s="20"/>
+      <c r="G102" s="20">
         <v>7.32</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="20">
         <v>14.64</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="25"/>
       <c r="E103" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="20"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="13">
+      <c r="A104" s="20">
         <v>52</v>
       </c>
       <c r="B104" s="15">
@@ -7038,32 +7255,32 @@
       <c r="E104" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13">
+      <c r="F104" s="20"/>
+      <c r="G104" s="20">
         <v>2</v>
       </c>
-      <c r="H104" s="13">
-        <v>10</v>
-      </c>
-      <c r="I104" s="19" t="s">
+      <c r="H104" s="20">
+        <v>10</v>
+      </c>
+      <c r="I104" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="25"/>
       <c r="E105" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="20"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="13">
+      <c r="A106" s="20">
         <v>53</v>
       </c>
       <c r="B106" s="15">
@@ -7076,32 +7293,32 @@
       <c r="E106" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13">
+      <c r="F106" s="20"/>
+      <c r="G106" s="20">
         <v>106.84</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="20">
         <v>106.84</v>
       </c>
-      <c r="I106" s="19" t="s">
+      <c r="I106" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="25"/>
       <c r="E107" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="13">
+      <c r="A108" s="20">
         <v>54</v>
       </c>
       <c r="B108" s="15">
@@ -7114,32 +7331,32 @@
       <c r="E108" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13">
+      <c r="F108" s="20"/>
+      <c r="G108" s="20">
         <v>3.12</v>
       </c>
-      <c r="H108" s="13">
+      <c r="H108" s="20">
         <v>62.4</v>
       </c>
-      <c r="I108" s="19" t="s">
+      <c r="I108" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="25"/>
       <c r="E109" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
+      <c r="A110" s="20">
         <v>55</v>
       </c>
       <c r="B110" s="15">
@@ -7152,32 +7369,32 @@
       <c r="E110" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13">
+      <c r="F110" s="20"/>
+      <c r="G110" s="20">
         <v>18.36</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="20">
         <v>18.36</v>
       </c>
-      <c r="I110" s="19" t="s">
+      <c r="I110" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="25"/>
       <c r="E111" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="20"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="13">
+      <c r="A112" s="20">
         <v>56</v>
       </c>
       <c r="B112" s="15">
@@ -7190,32 +7407,32 @@
       <c r="E112" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13">
+      <c r="F112" s="20"/>
+      <c r="G112" s="20">
         <v>14.52</v>
       </c>
-      <c r="H112" s="13">
+      <c r="H112" s="20">
         <v>29.04</v>
       </c>
-      <c r="I112" s="19" t="s">
+      <c r="I112" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="25"/>
       <c r="E113" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="20"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
+      <c r="A114" s="20">
         <v>57</v>
       </c>
       <c r="B114" s="15">
@@ -7228,32 +7445,32 @@
       <c r="E114" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13">
+      <c r="F114" s="20"/>
+      <c r="G114" s="20">
         <v>12.44</v>
       </c>
-      <c r="H114" s="13">
+      <c r="H114" s="20">
         <v>12.44</v>
       </c>
-      <c r="I114" s="19" t="s">
+      <c r="I114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="14"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="25"/>
       <c r="E115" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="20"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
+      <c r="A116" s="20">
         <v>58</v>
       </c>
       <c r="B116" s="15">
@@ -7266,32 +7483,32 @@
       <c r="E116" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13">
+      <c r="F116" s="20"/>
+      <c r="G116" s="20">
         <v>0.88</v>
       </c>
-      <c r="H116" s="13">
+      <c r="H116" s="20">
         <v>26.4</v>
       </c>
-      <c r="I116" s="19" t="s">
+      <c r="I116" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="17"/>
       <c r="C117" s="18"/>
       <c r="D117" s="25"/>
       <c r="E117" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="20"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
+      <c r="A118" s="20">
         <v>59</v>
       </c>
       <c r="B118" s="15">
@@ -7304,32 +7521,32 @@
       <c r="E118" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13">
+      <c r="F118" s="20"/>
+      <c r="G118" s="20">
         <v>0.22</v>
       </c>
-      <c r="H118" s="13">
+      <c r="H118" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I118" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="25"/>
       <c r="E119" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="20"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="13">
+      <c r="A120" s="20">
         <v>60</v>
       </c>
       <c r="B120" s="15">
@@ -7342,32 +7559,32 @@
       <c r="E120" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13">
+      <c r="F120" s="20"/>
+      <c r="G120" s="20">
         <v>0.33</v>
       </c>
-      <c r="H120" s="13">
+      <c r="H120" s="20">
         <v>6.6</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="14"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="25"/>
       <c r="E121" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="20"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="14"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
+      <c r="A122" s="20">
         <v>61</v>
       </c>
       <c r="B122" s="15">
@@ -7380,32 +7597,32 @@
       <c r="E122" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13">
+      <c r="F122" s="20"/>
+      <c r="G122" s="20">
         <v>0.44</v>
       </c>
-      <c r="H122" s="13">
+      <c r="H122" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I122" s="19" t="s">
+      <c r="I122" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="25"/>
       <c r="E123" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="20"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="13">
+      <c r="A124" s="20">
         <v>62</v>
       </c>
       <c r="B124" s="15">
@@ -7418,32 +7635,32 @@
       <c r="E124" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13">
+      <c r="F124" s="20"/>
+      <c r="G124" s="20">
         <v>0.33</v>
       </c>
-      <c r="H124" s="13">
+      <c r="H124" s="20">
         <v>6.6</v>
       </c>
-      <c r="I124" s="19" t="s">
+      <c r="I124" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="25"/>
       <c r="E125" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="20"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="13">
+      <c r="A126" s="20">
         <v>63</v>
       </c>
       <c r="B126" s="15">
@@ -7456,34 +7673,34 @@
       <c r="E126" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F126" s="13" t="s">
+      <c r="F126" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G126" s="13">
+      <c r="G126" s="20">
         <v>0.33</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="20">
         <v>6.6</v>
       </c>
-      <c r="I126" s="19" t="s">
+      <c r="I126" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="14"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
       <c r="D127" s="25"/>
       <c r="E127" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="20"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
+      <c r="A128" s="20">
         <v>64</v>
       </c>
       <c r="B128" s="15">
@@ -7496,32 +7713,32 @@
       <c r="E128" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13">
+      <c r="F128" s="20"/>
+      <c r="G128" s="20">
         <v>0.33</v>
       </c>
-      <c r="H128" s="13">
+      <c r="H128" s="20">
         <v>4.95</v>
       </c>
-      <c r="I128" s="19" t="s">
+      <c r="I128" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="14"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="25"/>
       <c r="E129" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="20"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="14"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="13">
+      <c r="A130" s="20">
         <v>65</v>
       </c>
       <c r="B130" s="15">
@@ -7534,32 +7751,32 @@
       <c r="E130" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13">
+      <c r="F130" s="20"/>
+      <c r="G130" s="20">
         <v>1.65</v>
       </c>
-      <c r="H130" s="13">
+      <c r="H130" s="20">
         <v>24.75</v>
       </c>
-      <c r="I130" s="19" t="s">
+      <c r="I130" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="17"/>
       <c r="C131" s="18"/>
       <c r="D131" s="25"/>
       <c r="E131" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="20"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="14"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="13">
+      <c r="A132" s="20">
         <v>66</v>
       </c>
       <c r="B132" s="15">
@@ -7572,32 +7789,32 @@
       <c r="E132" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13">
+      <c r="F132" s="20"/>
+      <c r="G132" s="20">
         <v>0.51</v>
       </c>
-      <c r="H132" s="13">
+      <c r="H132" s="20">
         <v>10.199999999999999</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="25"/>
       <c r="E133" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="20"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="14"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
+      <c r="A134" s="20">
         <v>67</v>
       </c>
       <c r="B134" s="15">
@@ -7610,32 +7827,32 @@
       <c r="E134" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13">
+      <c r="F134" s="20"/>
+      <c r="G134" s="20">
         <v>1.65</v>
       </c>
-      <c r="H134" s="13">
+      <c r="H134" s="20">
         <v>33</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
+      <c r="A135" s="21"/>
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
       <c r="D135" s="25"/>
       <c r="E135" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="20"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="14"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="13">
+      <c r="A136" s="20">
         <v>68</v>
       </c>
       <c r="B136" s="15">
@@ -7648,32 +7865,32 @@
       <c r="E136" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13">
+      <c r="F136" s="20"/>
+      <c r="G136" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H136" s="13">
+      <c r="H136" s="20">
         <v>11</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="17"/>
       <c r="C137" s="18"/>
       <c r="D137" s="25"/>
       <c r="E137" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="20"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="14"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="13">
+      <c r="A138" s="20">
         <v>69</v>
       </c>
       <c r="B138" s="15">
@@ -7686,32 +7903,32 @@
       <c r="E138" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13">
+      <c r="F138" s="20"/>
+      <c r="G138" s="20">
         <v>0.33</v>
       </c>
-      <c r="H138" s="13">
+      <c r="H138" s="20">
         <v>4.95</v>
       </c>
-      <c r="I138" s="19" t="s">
+      <c r="I138" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="14"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
       <c r="D139" s="25"/>
       <c r="E139" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="20"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="14"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="13">
+      <c r="A140" s="20">
         <v>70</v>
       </c>
       <c r="B140" s="15">
@@ -7724,32 +7941,32 @@
       <c r="E140" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13">
+      <c r="F140" s="20"/>
+      <c r="G140" s="20">
         <v>24.71</v>
       </c>
-      <c r="H140" s="13">
+      <c r="H140" s="20">
         <v>49.42</v>
       </c>
-      <c r="I140" s="19" t="s">
+      <c r="I140" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="14"/>
+      <c r="A141" s="21"/>
       <c r="B141" s="17"/>
       <c r="C141" s="18"/>
       <c r="D141" s="25"/>
       <c r="E141" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="20"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="14"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="13">
+      <c r="A142" s="20">
         <v>71</v>
       </c>
       <c r="B142" s="15">
@@ -7762,32 +7979,32 @@
       <c r="E142" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13">
+      <c r="F142" s="20"/>
+      <c r="G142" s="20">
         <v>1.54</v>
       </c>
-      <c r="H142" s="13">
+      <c r="H142" s="20">
         <v>23.1</v>
       </c>
-      <c r="I142" s="19" t="s">
+      <c r="I142" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
+      <c r="A143" s="21"/>
       <c r="B143" s="17"/>
       <c r="C143" s="18"/>
       <c r="D143" s="25"/>
       <c r="E143" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="20"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="14"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="13">
+      <c r="A144" s="20">
         <v>72</v>
       </c>
       <c r="B144" s="15">
@@ -7800,34 +8017,34 @@
       <c r="E144" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="F144" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="G144" s="13">
+      <c r="G144" s="20">
         <v>1.76</v>
       </c>
-      <c r="H144" s="13">
+      <c r="H144" s="20">
         <v>26.4</v>
       </c>
-      <c r="I144" s="19" t="s">
+      <c r="I144" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
+      <c r="A145" s="21"/>
       <c r="B145" s="17"/>
       <c r="C145" s="18"/>
       <c r="D145" s="25"/>
       <c r="E145" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="20"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="14"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="A146" s="20">
         <v>73</v>
       </c>
       <c r="B146" s="15">
@@ -7840,42 +8057,42 @@
       <c r="E146" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="F146" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="G146" s="13">
+      <c r="G146" s="20">
         <v>3.12</v>
       </c>
-      <c r="H146" s="13">
+      <c r="H146" s="20">
         <v>46.8</v>
       </c>
-      <c r="I146" s="19" t="s">
+      <c r="I146" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="14"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
       <c r="D147" s="25"/>
       <c r="E147" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="20"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="14"/>
     </row>
     <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A148" s="23"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
@@ -7927,497 +8144,6 @@
     </row>
   </sheetData>
   <mergeCells count="513">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="H110:H111"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="I140:I141"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="H138:H139"/>
     <mergeCell ref="I146:I147"/>
     <mergeCell ref="A148:I148"/>
     <mergeCell ref="A146:A147"/>
@@ -8440,6 +8166,497 @@
     <mergeCell ref="F142:F143"/>
     <mergeCell ref="G142:G143"/>
     <mergeCell ref="H142:H143"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="I140:I141"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://www.shelfkey.com/orderproduct.aspx?cmd=edit&amp;id=0"/>
